--- a/mechanical_turk/HTML_files/Context_earthquake.xlsx
+++ b/mechanical_turk/HTML_files/Context_earthquake.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\ARL\mechanical_turk\HTML_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0078CD3-1DE3-401E-857A-1680CE94AF7C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF0BCB2-F250-46B3-9A98-B287D4ABB896}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{34AA2015-C1CD-4D57-A63D-3DF716DC3691}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Identifier</t>
   </si>
@@ -63,34 +63,19 @@
     <t>You are a US military officer working cooperatively with the Chinese military to aid earthquake survivors. A US sergeant (lower rank than you) is arguing with a Chinese Lieutenant. You are frusterated that they are arguing rather than working to help the victims of the earthquake. You approch them to ask what they are arguing about.</t>
   </si>
   <si>
-    <t>You are a US military officer working cooperatively with the Chinese military to aid earthquake survivors. A US sergeant (lower rank than you) is arguing with a Chinese Lieutenant. You are frusterated that they are arguing rather than working to help the victims of the earthquake. You handle the situation, but the US sergeant asks you to talk to the Chinese Lieutenant about why he would not cooperate previously. You feel the way the sergeant was treated was inappropriate.</t>
-  </si>
-  <si>
-    <t>You are a US military officer working cooperatively with the Chinese military to aid earthquake survivors. A US sergeant (lower rank than you) is arguing with a Chinese Lieutenant. You are frusterated that they are arguing rather than working to help the victims of the earthquake. You handle the situation, but the US sergeant asks you to talk to the Chinese Lieutenant about why he would not cooperate previously. You tell the Chinese Lieutenant that your sergeant is in charge when you are not around, and that he needs to be treated respectfully. The Chinese Lieutenant apologizes and says it will not happen again.</t>
-  </si>
-  <si>
-    <t>You are a US military officer working cooperatively with the Chinese military to pass out supplies to earthquake survivors. The US team has taken change of the aid station where the supplies are being distrubuted. The Chinese team shows up and begins passing out supplies. They are handing supplies out haphazardly and do not seem to care if everyone is getting equal supplies. They want to look good on camera. You feel your team should hand out supplies becuase you are in contorl of the aid station. You have asked the Chinese team leader to have his team pack supplies, but he says he wants to be treated equally in the mission. He has threatened to leave if you do not let his team hand out supplies. You do not want him to leave because it will hurt the mission.</t>
-  </si>
-  <si>
-    <t>You are a US military officer working cooperatively with the Chinese military to pass out supplies to earthquake survivors. The US team has taken change of the aid station where the supplies are being distrubuted. The Chinese team shows up and begins passing out supplies. They are handing supplies out haphazardly and do not seem to care if everyone is getting equal supplies. They want to look good on camera. You feel your team should hand out supplies becuase you are in contorl of the aid station.You have reluctantly agreed to allow the Chinese team to hand out supplies, but the team leader also wants you to allow them to film. You don't think it is a good idea.</t>
-  </si>
-  <si>
-    <t>You are a US military officer working cooperatively with the Chinese military to pass out supplies to earthquake survivors. The US team has taken change of the aid station where the supplies are being distrubuted. The Chinese team shows up and begins passing out supplies. They are handing supplies out haphazardly and do not seem to care if everyone is getting equal supplies. They want to look good on camera. You feel your team should hand out supplies becuase you are in contorl of the aid station.You have reluctantly agreed to allow the Chinese team to hand out supplies, but the team leader also wants you to allow them to film. He insists that they must be in the tent you are using to handle supplies. You are reluctant to agree.</t>
-  </si>
-  <si>
-    <t>You are a US military officer working cooperatively with the Chinese military to pass out supplies to earthquake survivors. The US team has taken change of the aid station where the supplies are being distrubuted. The Chinese team shows up and begins passing out supplies. They are handing supplies out haphazardly and not really caring if everyone is getting equal supplies. They want to look good on camera. You want to tell the Chinese team leader that the supplies need to go back to the aid station and you need the Chinese team to work security.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are a US military officer working cooperatively with the Chinese military to pass out supplies to earthquake survivors. The US team has taken change of the aid station where the supplies are being distrubuted. The Chinese team shows up and begins passing out supplies. They are handing supplies out haphazardly and not really caring if everyone is getting equal supplies. They want to look good on camera. You tell the Chinese team leader that the supplies need to go back to the aid station and you need the Chinese team to work security. The Chinese leader says that they want to contribute equally. </t>
-  </si>
-  <si>
-    <t>You are a US military officer working cooperatively with the Chinese military to pass out supplies to earthquake survivors. The US team has taken change of the aid station where the supplies are being distrubuted. The Chinese team shows up and begins passing out supplies. They are handing supplies out haphazardly and not really caring if everyone is getting equal supplies. They want to look good on camera.You want to tell the Chinese team leader that his team is disrupting the operation</t>
-  </si>
-  <si>
-    <t>You are a US military officer working cooperatively with the Chinese military to pass out supplies to earthquake survivors. The US team has taken change of the aid station where the supplies are being distrubuted. The Chinese team shows up and begins passing out supplies. They are handing supplies out haphazardly and not really caring if everyone is getting equal supplies. They want to look good on camera. You want to tell the Chinese team leader that you are in charge of the aid station, and you dictate how the supplies are distrubuted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are a US military officer working cooperatively with the Chinese military to aid earthquake survivors. A US sergeant (lower rank than you) is arguing with a Chinese Lieutenant. You are frusterated that they are arguing rather than working to help the victims of the earthquake. You handle the situation, but the US sergeant asks you to talk to the Chinese Lieutenant about why he would not cooperate previously. </t>
+    <t xml:space="preserve">You are a US military officer working cooperatively with the Chinese military to aid earthquake survivors. A US sergeant (lower rank than you) is arguing with a Chinese Lieutenant. You are frusterated that they are arguing rather than working to help the victims of the earthquake. You handle the situation, but you want to talk to the Chinese Lieutenant about why he would not cooperate with the American sergeant. </t>
+  </si>
+  <si>
+    <t>You are a US military officer working cooperatively with the Chinese military to aid earthquake survivors. A US sergeant (lower rank than you) is arguing with a Chinese Lieutenant. You are frusterated that they are arguing rather than working to help the victims of the earthquake. You handle the situation, but you want to talk to the Chinese Lieutenant about why he would not cooperate with the American sergeant. You feel the way the sergeant was treated was inappropriate.</t>
+  </si>
+  <si>
+    <t>You are a US military officer working cooperatively with the Chinese military to aid earthquake survivors. A US sergeant (lower rank than you) is arguing with a Chinese Lieutenant. You are frusterated that they are arguing rather than working to help the victims of the earthquake. You handle the situation and talk to the Chinese Lieutenant about why he would not cooperate with the American sergeant previously. You tell the Chinese Lieutenant that the American sergeant is in charge when you are not around, and that he needs to be treated respectfully. The Chinese Lieutenant apologizes and says it will not happen again. You want to thank him for his understanding.</t>
+  </si>
+  <si>
+    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You explain that you have taken the place of your commander because he had unexpected business come up. You have been searching a set buildings for natural disaster survivors. He indicates that he wants to search the buildings you have just cleared. You want to tell him that you have already cleared the buildings and you need his team's help elsewhere.</t>
+  </si>
+  <si>
+    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You explain that you have taken the place of your commander because he had unexpected business come up. You have been searching a set buildings for natural disaster survivors. He indicates that he wants to search the buildings you have just cleared. He has insited twice that he needs to check the buildings again. You realize you cannot convice him to continue.</t>
   </si>
 </sst>
 </file>
@@ -442,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5143391C-0245-4147-9911-D330566057DB}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B24"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -554,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -562,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -570,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -578,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -586,62 +571,6 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
         <v>16</v>
       </c>
     </row>
